--- a/js/secciones/mercado/otros.xlsx
+++ b/js/secciones/mercado/otros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Rune Nuevo\Gloranthor 2\js\secciones\mercado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Rune Nuevo\RuneKeeper\js\secciones\mercado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD0C7F-5A05-44B7-876E-AC8F59BFE155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BC608-F1D3-4FA3-85B8-7106B6342644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrumentos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>nombre</t>
   </si>
@@ -161,6 +161,66 @@
   </si>
   <si>
     <t>Para 6-8 personas.</t>
+  </si>
+  <si>
+    <t>Tumba con monolito</t>
+  </si>
+  <si>
+    <t>50L</t>
+  </si>
+  <si>
+    <t>Con capacidad para uno o dos difuntos.</t>
+  </si>
+  <si>
+    <t>Mausoleo</t>
+  </si>
+  <si>
+    <t>25L</t>
+  </si>
+  <si>
+    <t>Para un solo difunto.</t>
+  </si>
+  <si>
+    <t>Ataud</t>
+  </si>
+  <si>
+    <t>De madera y sin adornos.</t>
+  </si>
+  <si>
+    <t>Cripta</t>
+  </si>
+  <si>
+    <t>100L</t>
+  </si>
+  <si>
+    <t>Cámara funeraria subterranea.</t>
+  </si>
+  <si>
+    <t>Montículo funerario</t>
+  </si>
+  <si>
+    <t>20-100L</t>
+  </si>
+  <si>
+    <t>Montículo con cripta subterranea.</t>
+  </si>
+  <si>
+    <t>Sarcófago</t>
+  </si>
+  <si>
+    <t>20-100</t>
+  </si>
+  <si>
+    <t>De madera o piedra tallada, con o sin incrustaciones y policromía.</t>
+  </si>
+  <si>
+    <t>Urna funeraria</t>
+  </si>
+  <si>
+    <t>5C-10L</t>
+  </si>
+  <si>
+    <t>Según material y calidad.</t>
   </si>
 </sst>
 </file>
@@ -515,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,23 +800,115 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" s="3"/>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
@@ -764,15 +916,12 @@
     <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="3"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="3"/>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D50">
-    <sortCondition ref="A38:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
+    <sortCondition ref="A37:A49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
